--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Shalooh\pk\azim\blockchain PK\pool-888\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008EF5D-C4B4-4EE1-AA19-1F6F9BFFC596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE64E9-DCCA-41CC-AA35-055673EF165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE7AA7B0-E77F-4919-B00E-DF833DA8FAEE}"/>
   </bookViews>
@@ -188,6 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="196" formatCode="0.000000000000000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +329,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,18 +645,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129B229-19AF-40FF-9756-C3A6363CC7D3}">
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="109.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -929,6 +936,67 @@
     <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
+        <f>60*8</f>
+        <v>480</v>
+      </c>
+      <c r="E31">
+        <f>+D31*C31</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>0.432511416 * 47000</f>
+        <v>20328.036551999998</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>+G33*365*100/12350</f>
+        <v>60078.812481619425</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>10000*G34</f>
+        <v>600788124.8161943</v>
+      </c>
+      <c r="G35" s="14">
+        <f>F35/365</f>
+        <v>1645994.8625101214</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>+G35/24</f>
+        <v>68583.119271255055</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>+G36/(60*1000)</f>
+        <v>1.1430519878542509</v>
+      </c>
+      <c r="H37" s="15">
+        <f>+G37/47000</f>
+        <v>2.4320255060728744E-5</v>
+      </c>
+      <c r="I37">
+        <f>8*60</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f>+H37*I37</f>
+        <v>1.1673722429149797E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Shalooh\pk\azim\blockchain PK\pool-888\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE64E9-DCCA-41CC-AA35-055673EF165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48496B6-D33E-4478-BBDC-E913F20ACC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE7AA7B0-E77F-4919-B00E-DF833DA8FAEE}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>888 Approved Supply</t>
   </si>
@@ -182,17 +182,24 @@
   </si>
   <si>
     <t xml:space="preserve">So APR = poolEmissionDailyValue * 365 * 100 / 0, which is wrong and we will receive error </t>
+  </si>
+  <si>
+    <t>per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec in a year </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="196" formatCode="0.000000000000000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +234,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF959BAD"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -312,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,8 +342,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,41 +661,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129B229-19AF-40FF-9756-C3A6363CC7D3}">
-  <dimension ref="B1:I38"/>
+  <dimension ref="B1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="109.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="10" max="10" width="55.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -693,7 +714,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -708,7 +729,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -721,7 +742,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -733,7 +754,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -743,7 +764,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -762,7 +783,7 @@
         <v>177.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -776,8 +797,11 @@
         <f>H9-I9</f>
         <v>710.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -792,8 +816,19 @@
         <f>H10/365</f>
         <v>1.9463013698630136</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="16">
+        <f>+H11/(24*60*60)</f>
+        <v>2.252663622526636E-5</v>
+      </c>
+      <c r="K11">
+        <f>+J11*100000000</f>
+        <v>2252.6636225266361</v>
+      </c>
+      <c r="L11">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -803,7 +838,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -816,17 +851,25 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>3/9*710</f>
+        <v>236.66666666666666</v>
+      </c>
+      <c r="K15">
+        <f>+J15*100000000</f>
+        <v>23666666666.666664</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -834,8 +877,16 @@
         <v>14</v>
       </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>2/9*710</f>
+        <v>157.77777777777777</v>
+      </c>
+      <c r="K16">
+        <f>+J16*100000000</f>
+        <v>15777777777.777777</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -845,8 +896,14 @@
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>157.77777777777777</v>
+      </c>
+      <c r="K17">
+        <v>15777777777.777777</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -856,27 +913,47 @@
       <c r="H18" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>1/9*H10</f>
+        <v>78.933333333333323</v>
+      </c>
+      <c r="L18">
+        <f>+K18*100000000</f>
+        <v>7893333333.3333321</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>8*60*60</f>
+        <v>28800</v>
+      </c>
+      <c r="K19">
+        <f>1/9*H10</f>
+        <v>78.933333333333323</v>
+      </c>
+      <c r="L19">
+        <f>+K19*100000000</f>
+        <v>7893333333.3333321</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="G22" s="5">
         <f>2/9*H11</f>
         <v>0.43251141552511413</v>
@@ -884,46 +961,54 @@
       <c r="H22" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f>+J22*100000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G25" s="5">
         <f>3/9 * H11</f>
         <v>0.64876712328767117</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G27" s="5">
         <f>47000 * G25</f>
         <v>30492.054794520544</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>23666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G29" s="5">
         <f>G27*365*100 / 1000000</f>
         <v>1112.9599999999998</v>
@@ -932,12 +1017,18 @@
         <f>G29/365/24</f>
         <v>0.12705022831050225</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>15777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>7893333333.3333302</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>0.02</v>
       </c>
@@ -949,20 +1040,29 @@
         <f>+D31*C31</f>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>7893333333.3333321</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>+SUM(J28:J31)</f>
+        <v>55231111111.666656</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
       <c r="G33">
         <f>0.432511416 * 47000</f>
         <v>20328.036551999998</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
       <c r="G34">
         <f>+G33*365*100/12350</f>
         <v>60078.812481619425</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>10000*G34</f>
         <v>600788124.8161943</v>
@@ -972,13 +1072,13 @@
         <v>1645994.8625101214</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
       <c r="G36">
         <f>+G35/24</f>
         <v>68583.119271255055</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
       <c r="G37">
         <f>+G36/(60*1000)</f>
         <v>1.1430519878542509</v>
@@ -991,11 +1091,195 @@
         <f>8*60</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>839539</f>
+        <v>839539</v>
+      </c>
+      <c r="K37">
+        <f>+J37</f>
+        <v>839539</v>
+      </c>
+      <c r="L37">
+        <f>+K37/475000000</f>
+        <v>1.7674505263157894E-3</v>
+      </c>
+      <c r="M37">
+        <v>475000000</v>
+      </c>
+      <c r="N37">
+        <f>+M37*L37</f>
+        <v>839539</v>
+      </c>
+      <c r="O37">
+        <f>+N37/100000000</f>
+        <v>8.3953900000000008E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
       <c r="I38">
         <f>+H37*I37</f>
         <v>1.1673722429149797E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>475000000</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1665587403</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1665585691</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f>+F53*100000000</f>
+        <v>839539.00000000012</v>
+      </c>
+      <c r="F53">
+        <v>8.3953900000000008E-3</v>
+      </c>
+      <c r="G53">
+        <f>+G50-G51</f>
+        <v>1712</v>
+      </c>
+      <c r="H53">
+        <v>2252</v>
+      </c>
+      <c r="I53">
+        <f>+H53*G53</f>
+        <v>3855424</v>
+      </c>
+      <c r="J53">
+        <f>+I53*23666666667</f>
+        <v>9.1245034667951808E+16</v>
+      </c>
+      <c r="K53">
+        <f>+J53/55231111111</f>
+        <v>1652058.6465221259</v>
+      </c>
+      <c r="L53">
+        <f>+K53/475000000</f>
+        <v>3.4780182032044756E-3</v>
+      </c>
+      <c r="M53">
+        <f>+L53*1000000000000</f>
+        <v>3478018203.2044754</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f>+G53*H53*J28/J32</f>
+        <v>1652058.6465021849</v>
+      </c>
+      <c r="H56">
+        <f>+G56*1000000000000/475000000</f>
+        <v>3478018203.1624947</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f>+G56/475000000</f>
+        <v>3.4780182031624945E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>475000000*H56</f>
+        <v>1.652058646502185E+18</v>
+      </c>
+      <c r="G60">
+        <f>+F60/100000000000000000000</f>
+        <v>1.6520586465021851E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.24482999675E+17</v>
+      </c>
+      <c r="K60">
+        <f>+J60/1000000000000</f>
+        <v>124482.999675</v>
+      </c>
+      <c r="L60">
+        <f>+K60/100000000</f>
+        <v>1.2448299967500001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f>475000000*H57</f>
+        <v>1652058.6465021849</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>+F61/100000000</f>
+        <v>1.6520586465021848E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1665586561</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1665585691</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f>H66-H67</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>2252</v>
+      </c>
+      <c r="H73">
+        <f>+G73/100000000</f>
+        <v>2.2520000000000001E-5</v>
+      </c>
+      <c r="J73">
+        <f>365*24*60*60</f>
+        <v>31536000</v>
+      </c>
+      <c r="K73">
+        <f>+J73*G73</f>
+        <v>71019072000</v>
+      </c>
+      <c r="L73">
+        <f>+K73/100000000</f>
+        <v>710.19072000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F74" s="18">
+        <f>23666666667/55231111111</f>
+        <v>0.42850245434020379</v>
+      </c>
+      <c r="G74">
+        <f>+G73*F74</f>
+        <v>964.9875271741389</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f>+G74*1712</f>
+        <v>1652058.6465221257</v>
       </c>
     </row>
   </sheetData>

--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Shalooh\pk\azim\blockchain PK\pool-888\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48496B6-D33E-4478-BBDC-E913F20ACC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E57712-340F-43D9-886D-5E8E4D62BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE7AA7B0-E77F-4919-B00E-DF833DA8FAEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE7AA7B0-E77F-4919-B00E-DF833DA8FAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>888 Approved Supply</t>
   </si>
@@ -188,6 +191,36 @@
   </si>
   <si>
     <t xml:space="preserve">sec in a year </t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t xml:space="preserve">six year pool wise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDT </t>
+  </si>
+  <si>
+    <t>LP 888 /usdc</t>
+  </si>
+  <si>
+    <t>WMATIC</t>
+  </si>
+  <si>
+    <t>WETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool wise per day </t>
+  </si>
+  <si>
+    <t>pool wise per second</t>
   </si>
 </sst>
 </file>
@@ -197,7 +230,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -344,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -663,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129B229-19AF-40FF-9756-C3A6363CC7D3}">
   <dimension ref="B1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,26 +714,30 @@
     <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>365*6</f>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -714,7 +751,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -729,7 +766,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -742,7 +779,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -754,7 +791,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -764,7 +801,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -776,14 +813,14 @@
         <v>9</v>
       </c>
       <c r="H9" s="9">
-        <v>888</v>
+        <v>88888</v>
       </c>
       <c r="I9" s="1">
         <f>+H9 * 0.2</f>
-        <v>177.60000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>17777.600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -794,14 +831,13 @@
         <v>10</v>
       </c>
       <c r="H10" s="10">
-        <f>H9-I9</f>
-        <v>710.4</v>
+        <v>65000</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -813,22 +849,25 @@
         <v>11</v>
       </c>
       <c r="H11" s="6">
-        <f>H10/365</f>
-        <v>1.9463013698630136</v>
+        <f>H10/J3</f>
+        <v>29.680365296803654</v>
       </c>
       <c r="J11" s="16">
         <f>+H11/(24*60*60)</f>
-        <v>2.252663622526636E-5</v>
+        <v>3.4352274649078306E-4</v>
       </c>
       <c r="K11">
         <f>+J11*100000000</f>
-        <v>2252.6636225266361</v>
+        <v>34352.274649078303</v>
       </c>
       <c r="L11">
         <v>2252</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -837,8 +876,14 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>34352</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -851,25 +896,52 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
       <c r="J15">
-        <f>3/9*710</f>
-        <v>236.66666666666666</v>
+        <f>3/9*H10</f>
+        <v>21666.666666666664</v>
       </c>
       <c r="K15">
         <f>+J15*100000000</f>
-        <v>23666666666.666664</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>2166666666666.6665</v>
+      </c>
+      <c r="L15">
+        <f>3/9*H11</f>
+        <v>9.8934550989345507</v>
+      </c>
+      <c r="M15">
+        <f>+L15*100000000</f>
+        <v>989345509.89345503</v>
+      </c>
+      <c r="N15">
+        <f>+M15/86400</f>
+        <v>11450.758216359432</v>
+      </c>
+      <c r="O15">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -877,16 +949,34 @@
         <v>14</v>
       </c>
       <c r="H16" s="6"/>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
       <c r="J16">
-        <f>2/9*710</f>
-        <v>157.77777777777777</v>
+        <f>2/9*H10</f>
+        <v>14444.444444444443</v>
       </c>
       <c r="K16">
         <f>+J16*100000000</f>
-        <v>15777777777.777777</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1444444444444.4443</v>
+      </c>
+      <c r="L16">
+        <f>2/9*H11</f>
+        <v>6.5956367326230341</v>
+      </c>
+      <c r="M16">
+        <f>+L16*100000000</f>
+        <v>659563673.26230335</v>
+      </c>
+      <c r="N16">
+        <f>+M16/86400</f>
+        <v>7633.8388109062889</v>
+      </c>
+      <c r="O16">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -896,14 +986,34 @@
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
       <c r="J17">
-        <v>157.77777777777777</v>
+        <f>2/9*H10</f>
+        <v>14444.444444444443</v>
       </c>
       <c r="K17">
-        <v>15777777777.777777</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <f>+J17*100000000</f>
+        <v>1444444444444.4443</v>
+      </c>
+      <c r="L17">
+        <f>2/9*H11</f>
+        <v>6.5956367326230341</v>
+      </c>
+      <c r="M17">
+        <f>+L17*100000000</f>
+        <v>659563673.26230335</v>
+      </c>
+      <c r="N17">
+        <f>+M17/86400</f>
+        <v>7633.8388109062889</v>
+      </c>
+      <c r="O17">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -913,50 +1023,86 @@
       <c r="H18" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18">
+        <f>1/9*H10</f>
+        <v>7222.2222222222217</v>
+      </c>
       <c r="K18">
-        <f>1/9*H10</f>
-        <v>78.933333333333323</v>
+        <f>+J18*100000000</f>
+        <v>722222222222.22217</v>
       </c>
       <c r="L18">
-        <f>+K18*100000000</f>
-        <v>7893333333.3333321</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <f>1/9*H11</f>
+        <v>3.297818366311517</v>
+      </c>
+      <c r="M18">
+        <f>+L18*100000000</f>
+        <v>329781836.63115168</v>
+      </c>
+      <c r="N18">
+        <f>+M18/86400</f>
+        <v>3816.9194054531445</v>
+      </c>
+      <c r="O18">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
       <c r="J19">
+        <f>1/9*H10</f>
+        <v>7222.2222222222217</v>
+      </c>
+      <c r="K19">
+        <f>+J19*100000000</f>
+        <v>722222222222.22217</v>
+      </c>
+      <c r="L19">
+        <f>1/9*H11</f>
+        <v>3.297818366311517</v>
+      </c>
+      <c r="M19">
+        <f>+L19*100000000</f>
+        <v>329781836.63115168</v>
+      </c>
+      <c r="N19">
+        <f>+M19/86400</f>
+        <v>3816.9194054531445</v>
+      </c>
+      <c r="O19">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21">
         <f>8*60*60</f>
         <v>28800</v>
       </c>
-      <c r="K19">
-        <f>1/9*H10</f>
-        <v>78.933333333333323</v>
-      </c>
-      <c r="L19">
-        <f>+K19*100000000</f>
-        <v>7893333333.3333321</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="G22" s="5">
         <f>2/9*H11</f>
-        <v>0.43251141552511413</v>
+        <v>6.5956367326230341</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>21</v>
@@ -966,38 +1112,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="6"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G25" s="5">
         <f>3/9 * H11</f>
-        <v>0.64876712328767117</v>
+        <v>9.8934550989345507</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G27" s="5">
         <f>47000 * G25</f>
-        <v>30492.054794520544</v>
+        <v>464992.38964992389</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1008,27 +1154,27 @@
         <v>23666666667</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G29" s="5">
         <f>G27*365*100 / 1000000</f>
-        <v>1112.9599999999998</v>
+        <v>16972.222222222223</v>
       </c>
       <c r="H29" s="6">
         <f>G29/365/24</f>
-        <v>0.12705022831050225</v>
+        <v>1.9374682902080165</v>
       </c>
       <c r="J29">
         <v>15777777778</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="J30">
         <v>7893333333.3333302</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>0.02</v>
       </c>
@@ -1044,7 +1190,7 @@
         <v>7893333333.3333321</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J32">
         <f>+SUM(J28:J31)</f>
         <v>55231111111.666656</v>
